--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:35:34+00:00</t>
+    <t>2023-02-18T09:40:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:40:56+00:00</t>
+    <t>2023-02-18T09:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:58:57+00:00</t>
+    <t>2023-02-18T10:08:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:04+00:00</t>
+    <t>2023-02-18T10:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:52+00:00</t>
+    <t>2023-02-18T10:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:22+00:00</t>
+    <t>2023-02-18T10:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:26+00:00</t>
+    <t>2023-02-18T11:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:03:25+00:00</t>
+    <t>2023-02-18T11:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:04:01+00:00</t>
+    <t>2023-02-18T11:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:59+00:00</t>
+    <t>2023-02-18T11:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:31+00:00</t>
+    <t>2023-02-18T14:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:06+00:00</t>
+    <t>2023-02-18T14:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:46+00:00</t>
+    <t>2023-02-18T14:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:33:26+00:00</t>
+    <t>2023-02-20T05:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:36:23+00:00</t>
+    <t>2023-02-20T05:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:45:30+00:00</t>
+    <t>2023-02-20T07:16:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:18+00:00</t>
+    <t>2023-02-20T07:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:27+00:00</t>
+    <t>2023-02-20T07:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:53+00:00</t>
+    <t>2023-02-20T07:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:54:18+00:00</t>
+    <t>2023-02-21T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:53:49+00:00</t>
+    <t>2023-02-21T14:02:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:05+00:00</t>
+    <t>2023-02-21T14:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:34+00:00</t>
+    <t>2023-02-21T14:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:39:39+00:00</t>
+    <t>2023-02-22T12:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:13:37+00:00</t>
+    <t>2023-02-22T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:14:29+00:00</t>
+    <t>2023-02-22T12:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:55:56+00:00</t>
+    <t>2023-02-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:56:47+00:00</t>
+    <t>2023-02-22T14:46:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:46:19+00:00</t>
+    <t>2023-02-22T14:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:47:44+00:00</t>
+    <t>2023-02-22T15:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:00:42+00:00</t>
+    <t>2023-02-22T15:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:01:39+00:00</t>
+    <t>2023-02-22T15:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:05:09+00:00</t>
+    <t>2023-02-22T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:06:05+00:00</t>
+    <t>2023-02-22T15:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:17:45+00:00</t>
+    <t>2023-02-22T15:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:19:59+00:00</t>
+    <t>2023-02-22T15:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:29:38+00:00</t>
+    <t>2023-02-22T15:31:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:31:03+00:00</t>
+    <t>2023-02-23T08:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:16:34+00:00</t>
+    <t>2023-02-23T08:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:20:52+00:00</t>
+    <t>2023-02-23T08:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:46:38+00:00</t>
+    <t>2023-02-24T12:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:58:33+00:00</t>
+    <t>2023-02-24T14:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:12:54+00:00</t>
+    <t>2023-02-24T14:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:24:20+00:00</t>
+    <t>2023-02-25T14:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T14:44:55+00:00</t>
+    <t>2023-02-27T07:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assists with tracking the state of the lab order and its completion status</t>
+    <t>Assists with tracking the state of the lab order and its completion status.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:20:27+00:00</t>
+    <t>2023-02-27T07:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:24:09+00:00</t>
+    <t>2023-02-27T07:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:38:12+00:00</t>
+    <t>2023-02-27T08:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:29:07+00:00</t>
+    <t>2023-02-28T11:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:17:07+00:00</t>
+    <t>2023-02-28T11:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:22:14+00:00</t>
+    <t>2023-03-01T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:28:52+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,25 +619,25 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-reason-sample-cancelled-or-rejected</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
   </si>
   <si>
     <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
@@ -1880,7 +1880,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.33984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3901,13 +3901,11 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3943,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3954,10 +3952,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,14 +3981,14 @@
         <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4015,7 +4013,7 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>202</v>
@@ -4039,7 +4037,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>228</v>
@@ -5727,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>322</v>
@@ -7549,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>404</v>
@@ -8231,7 +8229,7 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>420</v>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
